--- a/fgt-tables/fgt_trabalha_agricultura_rm.xlsx
+++ b/fgt-tables/fgt_trabalha_agricultura_rm.xlsx
@@ -381,10 +381,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.1557841451146393</v>
+        <v>0.158404049600987</v>
       </c>
       <c r="C2">
-        <v>0.001337606766597057</v>
+        <v>0.001492798534567874</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.3532255732866261</v>
+        <v>0.3448363805299818</v>
       </c>
       <c r="C3">
-        <v>0.003907645062690522</v>
+        <v>0.003933342534632842</v>
       </c>
     </row>
   </sheetData>
